--- a/assets/dummy/import_employee.xlsx
+++ b/assets/dummy/import_employee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ebs-hr\assets\dummy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\my-projects\ngohrms\assets\dummy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5504DCA2-0746-4DF4-967D-4015D6253B06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03941CF1-C60D-4709-B671-D54189F2019A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personal" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>Employee ID</t>
   </si>
@@ -193,6 +193,42 @@
   </si>
   <si>
     <t>Account No</t>
+  </si>
+  <si>
+    <t>NGO0001002</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>McCullam</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Christianity</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>Separated</t>
+  </si>
+  <si>
+    <t>Bangladeshi</t>
+  </si>
+  <si>
+    <t>Nathan Gilbert</t>
+  </si>
+  <si>
+    <t>noyon9718nil@gmail.com</t>
+  </si>
+  <si>
+    <t>Chadpur</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
   </si>
 </sst>
 </file>
@@ -202,10 +238,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,14 +272,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -514,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,10 +580,10 @@
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" customWidth="1"/>
     <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -595,6 +642,59 @@
       </c>
       <c r="R1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1">
+        <v>35348</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1720906313</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2">
+        <v>90284828439997</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -615,8 +715,11 @@
       <formula1>"NID,Passport"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{14519028-DA95-45AE-90DC-3EF1052E64CB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
